--- a/docs/StructureDefinition-MyPatient.xlsx
+++ b/docs/StructureDefinition-MyPatient.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://gitlab.mitre.org/awatson/water-closet-ig/StructureDefinition/MyPatient</t>
+    <t>https://github.com/clinical-meteor/r5-miscellaneous/StructureDefinition/MyPatient</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T23:10:47-05:00</t>
+    <t>2022-03-24T15:23:22-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MyPatient.xlsx
+++ b/docs/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T19:15:27-06:00</t>
+    <t>2023-02-23T16:14:18-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
